--- a/artfynd/A 48260-2022.xlsx
+++ b/artfynd/A 48260-2022.xlsx
@@ -1023,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104490040</v>
+        <v>104486462</v>
       </c>
       <c r="B5" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,35 +1039,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kläppvägen 10, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>385586.7099842934</v>
+        <v>385780.2643502797</v>
       </c>
       <c r="R5" t="n">
-        <v>6973096.581030332</v>
+        <v>6973124.991221779</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104486462</v>
+        <v>104486536</v>
       </c>
       <c r="B6" t="n">
-        <v>89410</v>
+        <v>73686</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,21 +1152,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>308</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>385780.2643502797</v>
+        <v>385782.33526623</v>
       </c>
       <c r="R6" t="n">
-        <v>6973124.991221779</v>
+        <v>6973145.015859553</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104486536</v>
+        <v>104486293</v>
       </c>
       <c r="B7" t="n">
-        <v>73686</v>
+        <v>81236</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,21 +1265,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>385782.33526623</v>
+        <v>385785.4009400345</v>
       </c>
       <c r="R7" t="n">
-        <v>6973145.015859553</v>
+        <v>6973128.009227852</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104486293</v>
+        <v>104482358</v>
       </c>
       <c r="B8" t="n">
         <v>81236</v>
@@ -1399,14 +1399,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>385785.4009400345</v>
+        <v>385781.6373006876</v>
       </c>
       <c r="R8" t="n">
-        <v>6973128.009227852</v>
+        <v>6973347.829356259</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104482358</v>
+        <v>104484661</v>
       </c>
       <c r="B9" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1491,35 +1491,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>385781.6373006876</v>
+        <v>385874.954678808</v>
       </c>
       <c r="R9" t="n">
-        <v>6973347.829356259</v>
+        <v>6973308.949984766</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104484661</v>
+        <v>104491137</v>
       </c>
       <c r="B10" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1604,35 +1604,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 4, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>385874.954678808</v>
+        <v>385719.1718673604</v>
       </c>
       <c r="R10" t="n">
-        <v>6973308.949984766</v>
+        <v>6973078.251039916</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104491137</v>
+        <v>104490943</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>89734</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,39 +1713,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>2063</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Älgen 4, Berg, Hjd</t>
+          <t>Älgen 3, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>385719.1718673604</v>
+        <v>385714.4783049953</v>
       </c>
       <c r="R11" t="n">
-        <v>6973078.251039916</v>
+        <v>6972956.91547809</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1814,10 +1814,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104490943</v>
+        <v>104486216</v>
       </c>
       <c r="B12" t="n">
-        <v>89734</v>
+        <v>89410</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,39 +1826,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2063</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Älgen 3, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>385714.4783049953</v>
+        <v>385797.0699983825</v>
       </c>
       <c r="R12" t="n">
-        <v>6972956.91547809</v>
+        <v>6973160.944557144</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104486216</v>
+        <v>104486095</v>
       </c>
       <c r="B13" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1943,21 +1943,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1968,10 +1968,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>385797.0699983825</v>
+        <v>385817.070280343</v>
       </c>
       <c r="R13" t="n">
-        <v>6973160.944557144</v>
+        <v>6973144.260730976</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104486095</v>
+        <v>104486875</v>
       </c>
       <c r="B14" t="n">
         <v>81236</v>
@@ -2081,10 +2081,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>385817.070280343</v>
+        <v>385775.0169926122</v>
       </c>
       <c r="R14" t="n">
-        <v>6973144.260730976</v>
+        <v>6973249.864500963</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104489152</v>
+        <v>104486306</v>
       </c>
       <c r="B15" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2169,35 +2169,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>385612.2725011725</v>
+        <v>385785.4009400345</v>
       </c>
       <c r="R15" t="n">
-        <v>6973160.546211691</v>
+        <v>6973128.009227852</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104489397</v>
+        <v>104485951</v>
       </c>
       <c r="B16" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2282,35 +2282,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>385614.4555041925</v>
+        <v>385828.4299772013</v>
       </c>
       <c r="R16" t="n">
-        <v>6973144.483772759</v>
+        <v>6973194.56289848</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104488824</v>
+        <v>104486147</v>
       </c>
       <c r="B17" t="n">
-        <v>73693</v>
+        <v>73680</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2391,39 +2391,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>306</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>385652.5053445619</v>
+        <v>385818.0157679995</v>
       </c>
       <c r="R17" t="n">
-        <v>6973199.333845838</v>
+        <v>6973145.141240912</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104486875</v>
+        <v>104486890</v>
       </c>
       <c r="B18" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2508,21 +2508,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>385775.0169926122</v>
+        <v>385789.1925001259</v>
       </c>
       <c r="R18" t="n">
-        <v>6973249.864500963</v>
+        <v>6973158.022204014</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2593,22 +2593,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104486306</v>
+        <v>104482914</v>
       </c>
       <c r="B19" t="n">
-        <v>73693</v>
+        <v>77588</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2621,35 +2621,35 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>385785.4009400345</v>
+        <v>385892.6128013662</v>
       </c>
       <c r="R19" t="n">
-        <v>6973128.009227852</v>
+        <v>6973356.289835169</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104491213</v>
+        <v>104482778</v>
       </c>
       <c r="B20" t="n">
-        <v>81236</v>
+        <v>77588</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2734,35 +2734,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1312</v>
+        <v>864</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Älgen 4, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>385688.887423393</v>
+        <v>385863.7821318086</v>
       </c>
       <c r="R20" t="n">
-        <v>6973101.689489044</v>
+        <v>6973342.680158477</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104485951</v>
+        <v>104485210</v>
       </c>
       <c r="B21" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2847,35 +2847,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Ljungdalen 279, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>385828.4299772013</v>
+        <v>385946.4694325946</v>
       </c>
       <c r="R21" t="n">
-        <v>6973194.56289848</v>
+        <v>6973208.717170603</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104486147</v>
+        <v>104485925</v>
       </c>
       <c r="B22" t="n">
-        <v>73680</v>
+        <v>73693</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2956,25 +2956,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>306</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>385818.0157679995</v>
+        <v>385834.3686793515</v>
       </c>
       <c r="R22" t="n">
-        <v>6973145.141240912</v>
+        <v>6973194.355755781</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104488744</v>
+        <v>104485978</v>
       </c>
       <c r="B23" t="n">
         <v>73693</v>
@@ -3094,14 +3094,14 @@
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>385674.5603094755</v>
+        <v>385842.0937106303</v>
       </c>
       <c r="R23" t="n">
-        <v>6973202.217352532</v>
+        <v>6973166.681873812</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3170,10 +3170,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104486890</v>
+        <v>104483346</v>
       </c>
       <c r="B24" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3186,35 +3186,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>385789.1925001259</v>
+        <v>385814.2547318427</v>
       </c>
       <c r="R24" t="n">
-        <v>6973158.022204014</v>
+        <v>6973378.204649099</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3271,22 +3271,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104489528</v>
+        <v>104484847</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>73691</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3295,25 +3295,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6486</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>385607.2792763614</v>
+        <v>385912.9117710284</v>
       </c>
       <c r="R25" t="n">
-        <v>6973161.634203851</v>
+        <v>6973243.228219409</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3384,22 +3384,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104482914</v>
+        <v>104486653</v>
       </c>
       <c r="B26" t="n">
-        <v>77588</v>
+        <v>89832</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3408,39 +3408,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>864</v>
+        <v>1209</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>385892.6128013662</v>
+        <v>385783.7201722351</v>
       </c>
       <c r="R26" t="n">
-        <v>6973356.289835169</v>
+        <v>6973184.704227397</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104482778</v>
+        <v>104486731</v>
       </c>
       <c r="B27" t="n">
-        <v>77588</v>
+        <v>89410</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3525,35 +3525,35 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>385863.7821318086</v>
+        <v>385775.736121381</v>
       </c>
       <c r="R27" t="n">
-        <v>6973342.680158477</v>
+        <v>6973191.833943347</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3622,10 +3622,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104485210</v>
+        <v>104483602</v>
       </c>
       <c r="B28" t="n">
-        <v>81236</v>
+        <v>73698</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3638,35 +3638,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1312</v>
+        <v>1467</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Ljungdalen 279, Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>385946.4694325946</v>
+        <v>385814.2547318427</v>
       </c>
       <c r="R28" t="n">
-        <v>6973208.717170603</v>
+        <v>6973378.204649099</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104485925</v>
+        <v>104485093</v>
       </c>
       <c r="B29" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3751,35 +3751,35 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Ljungdalen 279, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>385834.3686793515</v>
+        <v>385944.284869098</v>
       </c>
       <c r="R29" t="n">
-        <v>6973194.355755781</v>
+        <v>6973224.779004808</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104485978</v>
+        <v>104491088</v>
       </c>
       <c r="B30" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,35 +3864,35 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Älgen 4, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>385842.0937106303</v>
+        <v>385722.3864956281</v>
       </c>
       <c r="R30" t="n">
-        <v>6973166.681873812</v>
+        <v>6973039.314295191</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104483346</v>
+        <v>104484667</v>
       </c>
       <c r="B31" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3977,35 +3977,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>385814.2547318427</v>
+        <v>385874.954678808</v>
       </c>
       <c r="R31" t="n">
-        <v>6973378.204649099</v>
+        <v>6973308.949984766</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104484847</v>
+        <v>104484533</v>
       </c>
       <c r="B32" t="n">
-        <v>73691</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4086,25 +4086,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6486</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>385912.9117710284</v>
+        <v>385842.6260246574</v>
       </c>
       <c r="R32" t="n">
-        <v>6973243.228219409</v>
+        <v>6973339.307521479</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4187,10 +4187,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104486653</v>
+        <v>104488642</v>
       </c>
       <c r="B33" t="n">
-        <v>89832</v>
+        <v>77506</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4199,39 +4199,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>385783.7201722351</v>
+        <v>385700.2908852779</v>
       </c>
       <c r="R33" t="n">
-        <v>6973184.704227397</v>
+        <v>6973218.674786149</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104486731</v>
+        <v>104485804</v>
       </c>
       <c r="B34" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4316,35 +4316,35 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>385775.736121381</v>
+        <v>385860.4871459709</v>
       </c>
       <c r="R34" t="n">
-        <v>6973191.833943347</v>
+        <v>6973195.728561484</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104490580</v>
+        <v>104490976</v>
       </c>
       <c r="B35" t="n">
-        <v>73691</v>
+        <v>89410</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4425,39 +4425,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6486</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Kläppvägen 8, Berg, Hjd</t>
+          <t>Älgen 3, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>385658.5877377452</v>
+        <v>385714.4783049953</v>
       </c>
       <c r="R35" t="n">
-        <v>6972967.545929333</v>
+        <v>6972956.91547809</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4526,10 +4526,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104489411</v>
+        <v>104488381</v>
       </c>
       <c r="B36" t="n">
-        <v>77588</v>
+        <v>81236</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4542,35 +4542,35 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>385614.4555041925</v>
+        <v>385707.8861772725</v>
       </c>
       <c r="R36" t="n">
-        <v>6973144.483772759</v>
+        <v>6973265.909868848</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4639,10 +4639,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104489693</v>
+        <v>104482287</v>
       </c>
       <c r="B37" t="n">
-        <v>73698</v>
+        <v>73693</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4655,35 +4655,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1467</v>
+        <v>6440</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Kläppvägen 10, Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>385609.939420962</v>
+        <v>385766.8922733082</v>
       </c>
       <c r="R37" t="n">
-        <v>6973080.696209057</v>
+        <v>6973344.690203926</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4752,10 +4752,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104488937</v>
+        <v>104482676</v>
       </c>
       <c r="B38" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4768,21 +4768,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4793,10 +4793,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>385633.9984590017</v>
+        <v>385845.6963662593</v>
       </c>
       <c r="R38" t="n">
-        <v>6973167.094962448</v>
+        <v>6973335.546681707</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104483602</v>
+        <v>104482779</v>
       </c>
       <c r="B39" t="n">
-        <v>73698</v>
+        <v>77506</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4881,35 +4881,35 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>385814.2547318427</v>
+        <v>385863.7821318086</v>
       </c>
       <c r="R39" t="n">
-        <v>6973378.204649099</v>
+        <v>6973342.680158477</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4978,10 +4978,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104485093</v>
+        <v>104488560</v>
       </c>
       <c r="B40" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4994,35 +4994,35 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Ljungdalen 279, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>385944.284869098</v>
+        <v>385698.2776013738</v>
       </c>
       <c r="R40" t="n">
-        <v>6973224.779004808</v>
+        <v>6973226.509612499</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5091,10 +5091,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104489424</v>
+        <v>104486213</v>
       </c>
       <c r="B41" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5107,35 +5107,35 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>385624.7180573231</v>
+        <v>385797.0699983825</v>
       </c>
       <c r="R41" t="n">
-        <v>6973124.028173505</v>
+        <v>6973160.944557144</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104489100</v>
+        <v>104484908</v>
       </c>
       <c r="B42" t="n">
-        <v>78503</v>
+        <v>73693</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5216,39 +5216,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6456</v>
+        <v>6440</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Ljungdalen 279, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>385625.9349713447</v>
+        <v>385929.9210355897</v>
       </c>
       <c r="R42" t="n">
-        <v>6973171.944157754</v>
+        <v>6973232.58728893</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5317,10 +5317,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>104491088</v>
+        <v>104483254</v>
       </c>
       <c r="B43" t="n">
-        <v>81236</v>
+        <v>76504</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5333,35 +5333,35 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1312</v>
+        <v>314</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Älgen 4, Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>385722.3864956281</v>
+        <v>385814.2547318427</v>
       </c>
       <c r="R43" t="n">
-        <v>6973039.314295191</v>
+        <v>6973378.204649099</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104490462</v>
+        <v>104488370</v>
       </c>
       <c r="B44" t="n">
         <v>73693</v>
@@ -5467,14 +5467,14 @@
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Kläppvägen 8, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>385640.4888526043</v>
+        <v>385707.8861772725</v>
       </c>
       <c r="R44" t="n">
-        <v>6972973.2026641</v>
+        <v>6973265.909868848</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>104484667</v>
+        <v>104491313</v>
       </c>
       <c r="B45" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5559,35 +5559,35 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>385874.954678808</v>
+        <v>385720.7580199826</v>
       </c>
       <c r="R45" t="n">
-        <v>6973308.949984766</v>
+        <v>6973189.185575842</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5656,14 +5656,14 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104484533</v>
+        <v>104482790</v>
       </c>
       <c r="B46" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5672,35 +5672,40 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>385842.6260246574</v>
+        <v>385863.7821318086</v>
       </c>
       <c r="R46" t="n">
-        <v>6973339.307521479</v>
+        <v>6973342.680158477</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5769,14 +5774,14 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>104488510</v>
+        <v>104482573</v>
       </c>
       <c r="B47" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5785,35 +5790,40 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>385682.7562113208</v>
+        <v>385797.5664837714</v>
       </c>
       <c r="R47" t="n">
-        <v>6973253.54226117</v>
+        <v>6973358.691441686</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5845,7 +5855,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5855,7 +5865,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5870,26 +5880,26 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>104488642</v>
+        <v>104482699</v>
       </c>
       <c r="B48" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5898,35 +5908,40 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>385700.2908852779</v>
+        <v>385845.6963662593</v>
       </c>
       <c r="R48" t="n">
-        <v>6973218.674786149</v>
+        <v>6973335.546681707</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5995,14 +6010,14 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>104489325</v>
+        <v>104488386</v>
       </c>
       <c r="B49" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6011,35 +6026,40 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>385614.4555041925</v>
+        <v>385710.8767991299</v>
       </c>
       <c r="R49" t="n">
-        <v>6973144.483772759</v>
+        <v>6973259.867940788</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6071,7 +6091,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6081,7 +6101,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6096,26 +6116,26 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>104490583</v>
+        <v>104486015</v>
       </c>
       <c r="B50" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6124,35 +6144,40 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Kläppvägen 8, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>385658.5877377452</v>
+        <v>385842.0937106303</v>
       </c>
       <c r="R50" t="n">
-        <v>6972967.545929333</v>
+        <v>6973166.681873812</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6221,14 +6246,14 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>104485804</v>
+        <v>104486349</v>
       </c>
       <c r="B51" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6237,35 +6262,40 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>385860.4871459709</v>
+        <v>385803.7762218454</v>
       </c>
       <c r="R51" t="n">
-        <v>6973195.728561484</v>
+        <v>6973104.073845735</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6334,14 +6364,14 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>104490976</v>
+        <v>104483125</v>
       </c>
       <c r="B52" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6350,35 +6380,40 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Älgen 3, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>385714.4783049953</v>
+        <v>385878.4634345998</v>
       </c>
       <c r="R52" t="n">
-        <v>6972956.91547809</v>
+        <v>6973343.995092962</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6410,7 +6445,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6420,7 +6455,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6435,22 +6470,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>104488381</v>
+        <v>104490040</v>
       </c>
       <c r="B53" t="n">
-        <v>81236</v>
+        <v>78570</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6463,35 +6498,35 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1312</v>
+        <v>2081</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Kläppvägen 10, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>385707.8861772725</v>
+        <v>385586.7099842934</v>
       </c>
       <c r="R53" t="n">
-        <v>6973265.909868848</v>
+        <v>6973096.581030332</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6560,10 +6595,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104488785</v>
+        <v>104489152</v>
       </c>
       <c r="B54" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6576,35 +6611,35 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>385663.5168975106</v>
+        <v>385612.2725011725</v>
       </c>
       <c r="R54" t="n">
-        <v>6973200.319397839</v>
+        <v>6973160.546211691</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6673,10 +6708,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>104482287</v>
+        <v>104489397</v>
       </c>
       <c r="B55" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6689,35 +6724,35 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>385766.8922733082</v>
+        <v>385614.4555041925</v>
       </c>
       <c r="R55" t="n">
-        <v>6973344.690203926</v>
+        <v>6973144.483772759</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6786,7 +6821,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104482676</v>
+        <v>104488824</v>
       </c>
       <c r="B56" t="n">
         <v>73693</v>
@@ -6823,14 +6858,14 @@
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>385845.6963662593</v>
+        <v>385652.5053445619</v>
       </c>
       <c r="R56" t="n">
-        <v>6973335.546681707</v>
+        <v>6973199.333845838</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6899,10 +6934,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104482779</v>
+        <v>104491213</v>
       </c>
       <c r="B57" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6915,35 +6950,35 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 4, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>385863.7821318086</v>
+        <v>385688.887423393</v>
       </c>
       <c r="R57" t="n">
-        <v>6973342.680158477</v>
+        <v>6973101.689489044</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7012,10 +7047,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104488560</v>
+        <v>104488744</v>
       </c>
       <c r="B58" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7028,21 +7063,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7053,10 +7088,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>385698.2776013738</v>
+        <v>385674.5603094755</v>
       </c>
       <c r="R58" t="n">
-        <v>6973226.509612499</v>
+        <v>6973202.217352532</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7125,7 +7160,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>104486213</v>
+        <v>104489528</v>
       </c>
       <c r="B59" t="n">
         <v>77506</v>
@@ -7162,14 +7197,14 @@
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>385797.0699983825</v>
+        <v>385607.2792763614</v>
       </c>
       <c r="R59" t="n">
-        <v>6973160.944557144</v>
+        <v>6973161.634203851</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7201,7 +7236,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7211,7 +7246,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7226,22 +7261,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>104484908</v>
+        <v>104490580</v>
       </c>
       <c r="B60" t="n">
-        <v>73693</v>
+        <v>73691</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7250,39 +7285,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6440</v>
+        <v>6486</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Ljungdalen 279, Berg, Hjd</t>
+          <t>Kläppvägen 8, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>385929.9210355897</v>
+        <v>385658.5877377452</v>
       </c>
       <c r="R60" t="n">
-        <v>6973232.58728893</v>
+        <v>6972967.545929333</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7351,10 +7386,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>104483254</v>
+        <v>104489411</v>
       </c>
       <c r="B61" t="n">
-        <v>76504</v>
+        <v>77588</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7367,35 +7402,35 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>314</v>
+        <v>864</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>385814.2547318427</v>
+        <v>385614.4555041925</v>
       </c>
       <c r="R61" t="n">
-        <v>6973378.204649099</v>
+        <v>6973144.483772759</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7464,10 +7499,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>104488370</v>
+        <v>104489693</v>
       </c>
       <c r="B62" t="n">
-        <v>73693</v>
+        <v>73698</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7480,35 +7515,35 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6440</v>
+        <v>1467</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Kläppvägen 10, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>385707.8861772725</v>
+        <v>385609.939420962</v>
       </c>
       <c r="R62" t="n">
-        <v>6973265.909868848</v>
+        <v>6973080.696209057</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7577,10 +7612,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>104491313</v>
+        <v>104488937</v>
       </c>
       <c r="B63" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7593,35 +7628,35 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>385720.7580199826</v>
+        <v>385633.9984590017</v>
       </c>
       <c r="R63" t="n">
-        <v>6973189.185575842</v>
+        <v>6973167.094962448</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7690,14 +7725,14 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>104482790</v>
+        <v>104489424</v>
       </c>
       <c r="B64" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7706,40 +7741,35 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>385863.7821318086</v>
+        <v>385624.7180573231</v>
       </c>
       <c r="R64" t="n">
-        <v>6973342.680158477</v>
+        <v>6973124.028173505</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7808,56 +7838,51 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>104482573</v>
+        <v>104489100</v>
       </c>
       <c r="B65" t="n">
-        <v>56395</v>
+        <v>78503</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>385797.5664837714</v>
+        <v>385625.9349713447</v>
       </c>
       <c r="R65" t="n">
-        <v>6973358.691441686</v>
+        <v>6973171.944157754</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7889,7 +7914,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7899,7 +7924,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7914,26 +7939,26 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>104488765</v>
+        <v>104490462</v>
       </c>
       <c r="B66" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7942,40 +7967,35 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Kläppvägen 8, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>385663.5168975106</v>
+        <v>385640.4888526043</v>
       </c>
       <c r="R66" t="n">
-        <v>6973200.319397839</v>
+        <v>6972973.2026641</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8044,14 +8064,14 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>104482699</v>
+        <v>104488510</v>
       </c>
       <c r="B67" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -8060,40 +8080,35 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>385845.6963662593</v>
+        <v>385682.7562113208</v>
       </c>
       <c r="R67" t="n">
-        <v>6973335.546681707</v>
+        <v>6973253.54226117</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8162,14 +8177,14 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>104490665</v>
+        <v>104489325</v>
       </c>
       <c r="B68" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8178,40 +8193,35 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Kläppvägen 8, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>385632.8496468316</v>
+        <v>385614.4555041925</v>
       </c>
       <c r="R68" t="n">
-        <v>6972937.841158506</v>
+        <v>6973144.483772759</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8243,7 +8253,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8253,7 +8263,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8268,26 +8278,26 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>104488386</v>
+        <v>104490583</v>
       </c>
       <c r="B69" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8296,40 +8306,35 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Kläppvägen 8, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>385710.8767991299</v>
+        <v>385658.5877377452</v>
       </c>
       <c r="R69" t="n">
-        <v>6973259.867940788</v>
+        <v>6972967.545929333</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8361,7 +8366,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8371,7 +8376,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8386,26 +8391,26 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>104486015</v>
+        <v>104488785</v>
       </c>
       <c r="B70" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -8414,40 +8419,35 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>385842.0937106303</v>
+        <v>385663.5168975106</v>
       </c>
       <c r="R70" t="n">
-        <v>6973166.681873812</v>
+        <v>6973200.319397839</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>104486349</v>
+        <v>104488765</v>
       </c>
       <c r="B71" t="n">
         <v>56395</v>
@@ -8553,19 +8553,19 @@
       <c r="K71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>385803.7762218454</v>
+        <v>385663.5168975106</v>
       </c>
       <c r="R71" t="n">
-        <v>6973104.073845735</v>
+        <v>6973200.319397839</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8634,7 +8634,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>104483125</v>
+        <v>104490665</v>
       </c>
       <c r="B72" t="n">
         <v>56395</v>
@@ -8676,14 +8676,14 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Kläppvägen 8, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>385878.4634345998</v>
+        <v>385632.8496468316</v>
       </c>
       <c r="R72" t="n">
-        <v>6973343.995092962</v>
+        <v>6972937.841158506</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AD72" t="b">

--- a/artfynd/A 48260-2022.xlsx
+++ b/artfynd/A 48260-2022.xlsx
@@ -1023,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104486462</v>
+        <v>104490040</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>78570</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,35 +1039,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Kläppvägen 10, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>385780.2643502797</v>
+        <v>385586.7099842934</v>
       </c>
       <c r="R5" t="n">
-        <v>6973124.991221779</v>
+        <v>6973096.581030332</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104486536</v>
+        <v>104486462</v>
       </c>
       <c r="B6" t="n">
-        <v>73686</v>
+        <v>89410</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,21 +1152,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>308</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>385782.33526623</v>
+        <v>385780.2643502797</v>
       </c>
       <c r="R6" t="n">
-        <v>6973145.015859553</v>
+        <v>6973124.991221779</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104486293</v>
+        <v>104486536</v>
       </c>
       <c r="B7" t="n">
-        <v>81236</v>
+        <v>73686</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,21 +1265,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>385785.4009400345</v>
+        <v>385782.33526623</v>
       </c>
       <c r="R7" t="n">
-        <v>6973128.009227852</v>
+        <v>6973145.015859553</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104482358</v>
+        <v>104486293</v>
       </c>
       <c r="B8" t="n">
         <v>81236</v>
@@ -1399,14 +1399,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>385781.6373006876</v>
+        <v>385785.4009400345</v>
       </c>
       <c r="R8" t="n">
-        <v>6973347.829356259</v>
+        <v>6973128.009227852</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104484661</v>
+        <v>104482358</v>
       </c>
       <c r="B9" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1491,35 +1491,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>385874.954678808</v>
+        <v>385781.6373006876</v>
       </c>
       <c r="R9" t="n">
-        <v>6973308.949984766</v>
+        <v>6973347.829356259</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104491137</v>
+        <v>104484661</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1604,35 +1604,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Älgen 4, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>385719.1718673604</v>
+        <v>385874.954678808</v>
       </c>
       <c r="R10" t="n">
-        <v>6973078.251039916</v>
+        <v>6973308.949984766</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104490943</v>
+        <v>104491137</v>
       </c>
       <c r="B11" t="n">
-        <v>89734</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,39 +1713,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Älgen 3, Berg, Hjd</t>
+          <t>Älgen 4, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>385714.4783049953</v>
+        <v>385719.1718673604</v>
       </c>
       <c r="R11" t="n">
-        <v>6972956.91547809</v>
+        <v>6973078.251039916</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1814,10 +1814,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104486216</v>
+        <v>104490943</v>
       </c>
       <c r="B12" t="n">
-        <v>89410</v>
+        <v>89734</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,39 +1826,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>2063</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Älgen 3, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>385797.0699983825</v>
+        <v>385714.4783049953</v>
       </c>
       <c r="R12" t="n">
-        <v>6973160.944557144</v>
+        <v>6972956.91547809</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104486095</v>
+        <v>104486216</v>
       </c>
       <c r="B13" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1943,21 +1943,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1968,10 +1968,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>385817.070280343</v>
+        <v>385797.0699983825</v>
       </c>
       <c r="R13" t="n">
-        <v>6973144.260730976</v>
+        <v>6973160.944557144</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104486875</v>
+        <v>104486095</v>
       </c>
       <c r="B14" t="n">
         <v>81236</v>
@@ -2081,10 +2081,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>385775.0169926122</v>
+        <v>385817.070280343</v>
       </c>
       <c r="R14" t="n">
-        <v>6973249.864500963</v>
+        <v>6973144.260730976</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104486306</v>
+        <v>104489152</v>
       </c>
       <c r="B15" t="n">
-        <v>73693</v>
+        <v>89410</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2169,35 +2169,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>385785.4009400345</v>
+        <v>385612.2725011725</v>
       </c>
       <c r="R15" t="n">
-        <v>6973128.009227852</v>
+        <v>6973160.546211691</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104485951</v>
+        <v>104489397</v>
       </c>
       <c r="B16" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2282,35 +2282,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>385828.4299772013</v>
+        <v>385614.4555041925</v>
       </c>
       <c r="R16" t="n">
-        <v>6973194.56289848</v>
+        <v>6973144.483772759</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104486147</v>
+        <v>104488824</v>
       </c>
       <c r="B17" t="n">
-        <v>73680</v>
+        <v>73693</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2391,39 +2391,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>306</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>385818.0157679995</v>
+        <v>385652.5053445619</v>
       </c>
       <c r="R17" t="n">
-        <v>6973145.141240912</v>
+        <v>6973199.333845838</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104486890</v>
+        <v>104486875</v>
       </c>
       <c r="B18" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2508,21 +2508,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>385789.1925001259</v>
+        <v>385775.0169926122</v>
       </c>
       <c r="R18" t="n">
-        <v>6973158.022204014</v>
+        <v>6973249.864500963</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2593,22 +2593,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104482914</v>
+        <v>104486306</v>
       </c>
       <c r="B19" t="n">
-        <v>77588</v>
+        <v>73693</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2621,35 +2621,35 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>864</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>385892.6128013662</v>
+        <v>385785.4009400345</v>
       </c>
       <c r="R19" t="n">
-        <v>6973356.289835169</v>
+        <v>6973128.009227852</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104482778</v>
+        <v>104491213</v>
       </c>
       <c r="B20" t="n">
-        <v>77588</v>
+        <v>81236</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2734,35 +2734,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 4, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>385863.7821318086</v>
+        <v>385688.887423393</v>
       </c>
       <c r="R20" t="n">
-        <v>6973342.680158477</v>
+        <v>6973101.689489044</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104485210</v>
+        <v>104485951</v>
       </c>
       <c r="B21" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2847,35 +2847,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Ljungdalen 279, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>385946.4694325946</v>
+        <v>385828.4299772013</v>
       </c>
       <c r="R21" t="n">
-        <v>6973208.717170603</v>
+        <v>6973194.56289848</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104485925</v>
+        <v>104486147</v>
       </c>
       <c r="B22" t="n">
-        <v>73693</v>
+        <v>73680</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2956,25 +2956,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>306</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>385834.3686793515</v>
+        <v>385818.0157679995</v>
       </c>
       <c r="R22" t="n">
-        <v>6973194.355755781</v>
+        <v>6973145.141240912</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104485978</v>
+        <v>104488744</v>
       </c>
       <c r="B23" t="n">
         <v>73693</v>
@@ -3094,14 +3094,14 @@
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>385842.0937106303</v>
+        <v>385674.5603094755</v>
       </c>
       <c r="R23" t="n">
-        <v>6973166.681873812</v>
+        <v>6973202.217352532</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3170,10 +3170,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104483346</v>
+        <v>104486890</v>
       </c>
       <c r="B24" t="n">
-        <v>73693</v>
+        <v>89410</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3186,35 +3186,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>385814.2547318427</v>
+        <v>385789.1925001259</v>
       </c>
       <c r="R24" t="n">
-        <v>6973378.204649099</v>
+        <v>6973158.022204014</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3271,22 +3271,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104484847</v>
+        <v>104489528</v>
       </c>
       <c r="B25" t="n">
-        <v>73691</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3295,25 +3295,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6486</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>385912.9117710284</v>
+        <v>385607.2792763614</v>
       </c>
       <c r="R25" t="n">
-        <v>6973243.228219409</v>
+        <v>6973161.634203851</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3384,22 +3384,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104486653</v>
+        <v>104482914</v>
       </c>
       <c r="B26" t="n">
-        <v>89832</v>
+        <v>77588</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3408,39 +3408,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1209</v>
+        <v>864</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>385783.7201722351</v>
+        <v>385892.6128013662</v>
       </c>
       <c r="R26" t="n">
-        <v>6973184.704227397</v>
+        <v>6973356.289835169</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104486731</v>
+        <v>104482778</v>
       </c>
       <c r="B27" t="n">
-        <v>89410</v>
+        <v>77588</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3525,35 +3525,35 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>864</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>385775.736121381</v>
+        <v>385863.7821318086</v>
       </c>
       <c r="R27" t="n">
-        <v>6973191.833943347</v>
+        <v>6973342.680158477</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3622,10 +3622,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104483602</v>
+        <v>104485210</v>
       </c>
       <c r="B28" t="n">
-        <v>73698</v>
+        <v>81236</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3638,35 +3638,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Ljungdalen 279, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>385814.2547318427</v>
+        <v>385946.4694325946</v>
       </c>
       <c r="R28" t="n">
-        <v>6973378.204649099</v>
+        <v>6973208.717170603</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104485093</v>
+        <v>104485925</v>
       </c>
       <c r="B29" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3751,35 +3751,35 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Ljungdalen 279, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>385944.284869098</v>
+        <v>385834.3686793515</v>
       </c>
       <c r="R29" t="n">
-        <v>6973224.779004808</v>
+        <v>6973194.355755781</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104491088</v>
+        <v>104485978</v>
       </c>
       <c r="B30" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,35 +3864,35 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Älgen 4, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>385722.3864956281</v>
+        <v>385842.0937106303</v>
       </c>
       <c r="R30" t="n">
-        <v>6973039.314295191</v>
+        <v>6973166.681873812</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104484667</v>
+        <v>104483346</v>
       </c>
       <c r="B31" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3977,35 +3977,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>385874.954678808</v>
+        <v>385814.2547318427</v>
       </c>
       <c r="R31" t="n">
-        <v>6973308.949984766</v>
+        <v>6973378.204649099</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104484533</v>
+        <v>104484847</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>73691</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4086,25 +4086,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>6486</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>385842.6260246574</v>
+        <v>385912.9117710284</v>
       </c>
       <c r="R32" t="n">
-        <v>6973339.307521479</v>
+        <v>6973243.228219409</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4187,10 +4187,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104488642</v>
+        <v>104486653</v>
       </c>
       <c r="B33" t="n">
-        <v>77506</v>
+        <v>89832</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4199,39 +4199,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>385700.2908852779</v>
+        <v>385783.7201722351</v>
       </c>
       <c r="R33" t="n">
-        <v>6973218.674786149</v>
+        <v>6973184.704227397</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104485804</v>
+        <v>104486731</v>
       </c>
       <c r="B34" t="n">
-        <v>73693</v>
+        <v>89410</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4316,35 +4316,35 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>385860.4871459709</v>
+        <v>385775.736121381</v>
       </c>
       <c r="R34" t="n">
-        <v>6973195.728561484</v>
+        <v>6973191.833943347</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104490976</v>
+        <v>104490580</v>
       </c>
       <c r="B35" t="n">
-        <v>89410</v>
+        <v>73691</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4425,39 +4425,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>6486</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Älgen 3, Berg, Hjd</t>
+          <t>Kläppvägen 8, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>385714.4783049953</v>
+        <v>385658.5877377452</v>
       </c>
       <c r="R35" t="n">
-        <v>6972956.91547809</v>
+        <v>6972967.545929333</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4526,10 +4526,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104488381</v>
+        <v>104489411</v>
       </c>
       <c r="B36" t="n">
-        <v>81236</v>
+        <v>77588</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4542,35 +4542,35 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1312</v>
+        <v>864</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>385707.8861772725</v>
+        <v>385614.4555041925</v>
       </c>
       <c r="R36" t="n">
-        <v>6973265.909868848</v>
+        <v>6973144.483772759</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4639,10 +4639,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104482287</v>
+        <v>104489693</v>
       </c>
       <c r="B37" t="n">
-        <v>73693</v>
+        <v>73698</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4655,35 +4655,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6440</v>
+        <v>1467</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Kläppvägen 10, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>385766.8922733082</v>
+        <v>385609.939420962</v>
       </c>
       <c r="R37" t="n">
-        <v>6973344.690203926</v>
+        <v>6973080.696209057</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4752,10 +4752,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104482676</v>
+        <v>104488937</v>
       </c>
       <c r="B38" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4768,21 +4768,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4793,10 +4793,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>385845.6963662593</v>
+        <v>385633.9984590017</v>
       </c>
       <c r="R38" t="n">
-        <v>6973335.546681707</v>
+        <v>6973167.094962448</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104482779</v>
+        <v>104483602</v>
       </c>
       <c r="B39" t="n">
-        <v>77506</v>
+        <v>73698</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4881,35 +4881,35 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>385863.7821318086</v>
+        <v>385814.2547318427</v>
       </c>
       <c r="R39" t="n">
-        <v>6973342.680158477</v>
+        <v>6973378.204649099</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4978,10 +4978,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104488560</v>
+        <v>104485093</v>
       </c>
       <c r="B40" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4994,35 +4994,35 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Ljungdalen 279, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>385698.2776013738</v>
+        <v>385944.284869098</v>
       </c>
       <c r="R40" t="n">
-        <v>6973226.509612499</v>
+        <v>6973224.779004808</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5091,10 +5091,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104486213</v>
+        <v>104489424</v>
       </c>
       <c r="B41" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5107,35 +5107,35 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>385797.0699983825</v>
+        <v>385624.7180573231</v>
       </c>
       <c r="R41" t="n">
-        <v>6973160.944557144</v>
+        <v>6973124.028173505</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104484908</v>
+        <v>104489100</v>
       </c>
       <c r="B42" t="n">
-        <v>73693</v>
+        <v>78503</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5216,39 +5216,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6440</v>
+        <v>6456</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Ljungdalen 279, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>385929.9210355897</v>
+        <v>385625.9349713447</v>
       </c>
       <c r="R42" t="n">
-        <v>6973232.58728893</v>
+        <v>6973171.944157754</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5317,10 +5317,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>104483254</v>
+        <v>104491088</v>
       </c>
       <c r="B43" t="n">
-        <v>76504</v>
+        <v>81236</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5333,35 +5333,35 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>314</v>
+        <v>1312</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Älgen 4, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>385814.2547318427</v>
+        <v>385722.3864956281</v>
       </c>
       <c r="R43" t="n">
-        <v>6973378.204649099</v>
+        <v>6973039.314295191</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104488370</v>
+        <v>104490462</v>
       </c>
       <c r="B44" t="n">
         <v>73693</v>
@@ -5467,14 +5467,14 @@
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Kläppvägen 8, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>385707.8861772725</v>
+        <v>385640.4888526043</v>
       </c>
       <c r="R44" t="n">
-        <v>6973265.909868848</v>
+        <v>6972973.2026641</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>104491313</v>
+        <v>104484667</v>
       </c>
       <c r="B45" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5559,35 +5559,35 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>385720.7580199826</v>
+        <v>385874.954678808</v>
       </c>
       <c r="R45" t="n">
-        <v>6973189.185575842</v>
+        <v>6973308.949984766</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5656,14 +5656,14 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104482790</v>
+        <v>104484533</v>
       </c>
       <c r="B46" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5672,40 +5672,35 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>385863.7821318086</v>
+        <v>385842.6260246574</v>
       </c>
       <c r="R46" t="n">
-        <v>6973342.680158477</v>
+        <v>6973339.307521479</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5774,14 +5769,14 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>104482573</v>
+        <v>104488510</v>
       </c>
       <c r="B47" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5790,40 +5785,35 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Älgen 12, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>385797.5664837714</v>
+        <v>385682.7562113208</v>
       </c>
       <c r="R47" t="n">
-        <v>6973358.691441686</v>
+        <v>6973253.54226117</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5855,7 +5845,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5865,7 +5855,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5880,26 +5870,26 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>104482699</v>
+        <v>104488642</v>
       </c>
       <c r="B48" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5908,40 +5898,35 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>385845.6963662593</v>
+        <v>385700.2908852779</v>
       </c>
       <c r="R48" t="n">
-        <v>6973335.546681707</v>
+        <v>6973218.674786149</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6010,14 +5995,14 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>104488386</v>
+        <v>104489325</v>
       </c>
       <c r="B49" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6026,40 +6011,35 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>385710.8767991299</v>
+        <v>385614.4555041925</v>
       </c>
       <c r="R49" t="n">
-        <v>6973259.867940788</v>
+        <v>6973144.483772759</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6091,7 +6071,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6101,7 +6081,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6116,26 +6096,26 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>104486015</v>
+        <v>104490583</v>
       </c>
       <c r="B50" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6144,40 +6124,35 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Kläppvägen 8, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>385842.0937106303</v>
+        <v>385658.5877377452</v>
       </c>
       <c r="R50" t="n">
-        <v>6973166.681873812</v>
+        <v>6972967.545929333</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6246,14 +6221,14 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>104486349</v>
+        <v>104485804</v>
       </c>
       <c r="B51" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6262,40 +6237,35 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Älgen 13, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>385803.7762218454</v>
+        <v>385860.4871459709</v>
       </c>
       <c r="R51" t="n">
-        <v>6973104.073845735</v>
+        <v>6973195.728561484</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6364,14 +6334,14 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>104483125</v>
+        <v>104490976</v>
       </c>
       <c r="B52" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6380,40 +6350,35 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 3, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>385878.4634345998</v>
+        <v>385714.4783049953</v>
       </c>
       <c r="R52" t="n">
-        <v>6973343.995092962</v>
+        <v>6972956.91547809</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6445,7 +6410,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6455,7 +6420,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6470,22 +6435,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>104490040</v>
+        <v>104488381</v>
       </c>
       <c r="B53" t="n">
-        <v>78570</v>
+        <v>81236</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6498,35 +6463,35 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2081</v>
+        <v>1312</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Kläppvägen 10, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>385586.7099842934</v>
+        <v>385707.8861772725</v>
       </c>
       <c r="R53" t="n">
-        <v>6973096.581030332</v>
+        <v>6973265.909868848</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6595,10 +6560,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104489152</v>
+        <v>104488785</v>
       </c>
       <c r="B54" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6611,35 +6576,35 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>385612.2725011725</v>
+        <v>385663.5168975106</v>
       </c>
       <c r="R54" t="n">
-        <v>6973160.546211691</v>
+        <v>6973200.319397839</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6708,10 +6673,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>104489397</v>
+        <v>104482287</v>
       </c>
       <c r="B55" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6724,35 +6689,35 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>385614.4555041925</v>
+        <v>385766.8922733082</v>
       </c>
       <c r="R55" t="n">
-        <v>6973144.483772759</v>
+        <v>6973344.690203926</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6821,7 +6786,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104488824</v>
+        <v>104482676</v>
       </c>
       <c r="B56" t="n">
         <v>73693</v>
@@ -6858,14 +6823,14 @@
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>385652.5053445619</v>
+        <v>385845.6963662593</v>
       </c>
       <c r="R56" t="n">
-        <v>6973199.333845838</v>
+        <v>6973335.546681707</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6934,10 +6899,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104491213</v>
+        <v>104482779</v>
       </c>
       <c r="B57" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6950,35 +6915,35 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Älgen 4, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>385688.887423393</v>
+        <v>385863.7821318086</v>
       </c>
       <c r="R57" t="n">
-        <v>6973101.689489044</v>
+        <v>6973342.680158477</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7047,10 +7012,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104488744</v>
+        <v>104488560</v>
       </c>
       <c r="B58" t="n">
-        <v>73693</v>
+        <v>89410</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7063,21 +7028,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7088,10 +7053,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>385674.5603094755</v>
+        <v>385698.2776013738</v>
       </c>
       <c r="R58" t="n">
-        <v>6973202.217352532</v>
+        <v>6973226.509612499</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7160,7 +7125,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>104489528</v>
+        <v>104486213</v>
       </c>
       <c r="B59" t="n">
         <v>77506</v>
@@ -7197,14 +7162,14 @@
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>385607.2792763614</v>
+        <v>385797.0699983825</v>
       </c>
       <c r="R59" t="n">
-        <v>6973161.634203851</v>
+        <v>6973160.944557144</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7236,7 +7201,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7246,7 +7211,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7261,22 +7226,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>104490580</v>
+        <v>104484908</v>
       </c>
       <c r="B60" t="n">
-        <v>73691</v>
+        <v>73693</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7285,39 +7250,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6486</v>
+        <v>6440</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Kläppvägen 8, Berg, Hjd</t>
+          <t>Ljungdalen 279, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>385658.5877377452</v>
+        <v>385929.9210355897</v>
       </c>
       <c r="R60" t="n">
-        <v>6972967.545929333</v>
+        <v>6973232.58728893</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7386,10 +7351,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>104489411</v>
+        <v>104483254</v>
       </c>
       <c r="B61" t="n">
-        <v>77588</v>
+        <v>76504</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7402,35 +7367,35 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>864</v>
+        <v>314</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>385614.4555041925</v>
+        <v>385814.2547318427</v>
       </c>
       <c r="R61" t="n">
-        <v>6973144.483772759</v>
+        <v>6973378.204649099</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7499,10 +7464,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>104489693</v>
+        <v>104488370</v>
       </c>
       <c r="B62" t="n">
-        <v>73698</v>
+        <v>73693</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7515,35 +7480,35 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1467</v>
+        <v>6440</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Kläppvägen 10, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>385609.939420962</v>
+        <v>385707.8861772725</v>
       </c>
       <c r="R62" t="n">
-        <v>6973080.696209057</v>
+        <v>6973265.909868848</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7612,10 +7577,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>104488937</v>
+        <v>104491313</v>
       </c>
       <c r="B63" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7628,35 +7593,35 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>385633.9984590017</v>
+        <v>385720.7580199826</v>
       </c>
       <c r="R63" t="n">
-        <v>6973167.094962448</v>
+        <v>6973189.185575842</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7725,14 +7690,14 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>104489424</v>
+        <v>104482790</v>
       </c>
       <c r="B64" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7741,35 +7706,40 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>385624.7180573231</v>
+        <v>385863.7821318086</v>
       </c>
       <c r="R64" t="n">
-        <v>6973124.028173505</v>
+        <v>6973342.680158477</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7838,51 +7808,56 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>104489100</v>
+        <v>104482573</v>
       </c>
       <c r="B65" t="n">
-        <v>78503</v>
+        <v>56395</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Älgen 12, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>385625.9349713447</v>
+        <v>385797.5664837714</v>
       </c>
       <c r="R65" t="n">
-        <v>6973171.944157754</v>
+        <v>6973358.691441686</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7914,7 +7889,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7924,7 +7899,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7939,26 +7914,26 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>104490462</v>
+        <v>104488765</v>
       </c>
       <c r="B66" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7967,35 +7942,40 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Kläppvägen 8, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>385640.4888526043</v>
+        <v>385663.5168975106</v>
       </c>
       <c r="R66" t="n">
-        <v>6972973.2026641</v>
+        <v>6973200.319397839</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8064,14 +8044,14 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>104488510</v>
+        <v>104482699</v>
       </c>
       <c r="B67" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -8080,35 +8060,40 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>385682.7562113208</v>
+        <v>385845.6963662593</v>
       </c>
       <c r="R67" t="n">
-        <v>6973253.54226117</v>
+        <v>6973335.546681707</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8177,14 +8162,14 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>104489325</v>
+        <v>104490665</v>
       </c>
       <c r="B68" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8193,35 +8178,40 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Berg, Hjd</t>
+          <t>Kläppvägen 8, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>385614.4555041925</v>
+        <v>385632.8496468316</v>
       </c>
       <c r="R68" t="n">
-        <v>6973144.483772759</v>
+        <v>6972937.841158506</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8253,7 +8243,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8263,7 +8253,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8278,26 +8268,26 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>104490583</v>
+        <v>104488386</v>
       </c>
       <c r="B69" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8306,35 +8296,40 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Kläppvägen 8, Berg, Hjd</t>
+          <t>Älgen 5, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>385658.5877377452</v>
+        <v>385710.8767991299</v>
       </c>
       <c r="R69" t="n">
-        <v>6972967.545929333</v>
+        <v>6973259.867940788</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8366,7 +8361,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8376,7 +8371,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8391,26 +8386,26 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>104488785</v>
+        <v>104486015</v>
       </c>
       <c r="B70" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -8419,35 +8414,40 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>385663.5168975106</v>
+        <v>385842.0937106303</v>
       </c>
       <c r="R70" t="n">
-        <v>6973200.319397839</v>
+        <v>6973166.681873812</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>104488765</v>
+        <v>104486349</v>
       </c>
       <c r="B71" t="n">
         <v>56395</v>
@@ -8553,19 +8553,19 @@
       <c r="K71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Älgen 5, Berg, Hjd</t>
+          <t>Älgen 13, Berg, Hjd</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>385663.5168975106</v>
+        <v>385803.7762218454</v>
       </c>
       <c r="R71" t="n">
-        <v>6973200.319397839</v>
+        <v>6973104.073845735</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8634,7 +8634,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>104490665</v>
+        <v>104483125</v>
       </c>
       <c r="B72" t="n">
         <v>56395</v>
@@ -8676,14 +8676,14 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Kläppvägen 8, Berg, Hjd</t>
+          <t>Berg, Hjd</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>385632.8496468316</v>
+        <v>385878.4634345998</v>
       </c>
       <c r="R72" t="n">
-        <v>6972937.841158506</v>
+        <v>6973343.995092962</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD72" t="b">
